--- a/data/trans_bre/P19C08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P19C08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -625,17 +625,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,17 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 2,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 2,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,21; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,56%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 0,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 1,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 0,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,95; 663,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>251,02%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 0,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 0,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 0,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 0,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,58%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 0,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; -0,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 0,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,73; 137,3</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,02%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,41%</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 1,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 1,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 0,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,1; 678,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,73; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,93; 650,61</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,26%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 0,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 0,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 0,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 0,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,19; 304,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,5; 103,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,0; 772,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,57; 79,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-30,63%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>124,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-78,26%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,44; 0,73</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 1,35</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 1,02</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 0,03</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 2,74</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 2,96</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 0,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,88; 301,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>124,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-68,56%</t>
+          <t>325,04%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,88</t>
+          <t>-0,24; 0,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,56</t>
+          <t>-0,98; 0,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>-0,42; 0,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,11</t>
+          <t>-0,03; 0,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,95; 663,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>124,14%</t>
+          <t>-7,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>140,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>251,02%</t>
+          <t>-50,0%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,74</t>
+          <t>-0,89; 0,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,62</t>
+          <t>-2,62; -0,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,28</t>
+          <t>-0,3; 1,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 0,48</t>
+          <t>-2,23; 0,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,01; 115,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,21%</t>
+          <t>86,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>137,02%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>140,9%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-40,58%</t>
+          <t>61,68%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,81</t>
+          <t>-0,38; 1,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,62; -0,33</t>
+          <t>-0,16; 1,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,17</t>
+          <t>-0,81; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,48</t>
+          <t>-0,32; 0,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-64,1; 678,34</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-41,73; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-90,73; 137,3</t>
+          <t>-67,82; 738,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>137,02%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>-15,38%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,39</t>
+          <t>-0,13; 0,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,26</t>
+          <t>-0,45; 0,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,0</t>
+          <t>-0,17; 0,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,83</t>
+          <t>-0,46; 0,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-64,1; 678,34</t>
+          <t>-35,19; 304,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-41,73; —</t>
+          <t>-52,5; 103,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,0; 772,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-69,93; 650,61</t>
+          <t>-63,34; 84,84</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>58,53%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-3,22%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>33,59%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-16,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 0,58</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 0,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 0,33</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 0,24</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-35,19; 304,49</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-52,5; 103,84</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-72,0; 772,94</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-63,57; 79,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P19C08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Habitat-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,73</t>
+          <t>-0,42; 0,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,35</t>
+          <t>-0,95; 1,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,02</t>
+          <t>-0,17; 1,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,03</t>
+          <t>-1,52; 0,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-74,88; 301,2</t>
+          <t>-74,83; 293,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,74</t>
+          <t>-0,26; 0,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,62</t>
+          <t>-0,87; 0,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,28</t>
+          <t>-0,43; 0,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 0,5</t>
+          <t>-0,03; 0,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,81</t>
+          <t>-0,89; 0,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; -0,33</t>
+          <t>-2,29; -0,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,17</t>
+          <t>-0,29; 1,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,33</t>
+          <t>-2,15; 0,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-92,01; 115,52</t>
+          <t>-95,32; 93,59</t>
         </is>
       </c>
     </row>
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,39</t>
+          <t>-0,38; 1,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,26</t>
+          <t>-0,17; 1,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,0</t>
+          <t>-0,74; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,78</t>
+          <t>-0,3; 0,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,1; 678,34</t>
+          <t>-61,24; 846,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,73; —</t>
+          <t>-55,13; 918,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,82; 738,14</t>
+          <t>-64,57; 693,41</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 0,58</t>
+          <t>-0,15; 0,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,42</t>
+          <t>-0,44; 0,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 0,33</t>
+          <t>-0,16; 0,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,22</t>
+          <t>-0,46; 0,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 304,49</t>
+          <t>-35,53; 294,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-52,5; 103,84</t>
+          <t>-52,14; 98,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-72,0; 772,94</t>
+          <t>-84,06; 583,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-63,34; 84,84</t>
+          <t>-64,0; 93,55</t>
         </is>
       </c>
     </row>
